--- a/data/grade.xlsx
+++ b/data/grade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leekh/Desktop/study-python-ad2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leekh/leekh4232.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAA8880-3EB4-0F42-9649-2144FBB579B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDDF6C6-3908-FF41-BBF9-C6699C3E6EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>국어</t>
   </si>
@@ -47,13 +47,17 @@
   </si>
   <si>
     <t>호영</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,12 +69,22 @@
       <b/>
       <sz val="11"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -124,12 +138,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,28 +452,30 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -471,7 +489,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -488,7 +506,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -499,7 +517,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -516,7 +534,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6">

--- a/data/grade.xlsx
+++ b/data/grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leekh/leekh4232.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDDF6C6-3908-FF41-BBF9-C6699C3E6EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31A16CB-C102-304D-8C72-AF9EDC283726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="11280" windowWidth="34560" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>국어</t>
   </si>
@@ -51,13 +51,29 @@
   <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +99,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -136,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -146,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,101 +475,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="3" width="8.83203125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>98</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>88</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
         <v>88</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>90</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>62</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>92</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>63</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>31</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
         <v>120</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>88</v>
       </c>
     </row>
